--- a/ED_Figure_9e_source_data.xlsx
+++ b/ED_Figure_9e_source_data.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t xml:space="preserve">gene</t>
   </si>
@@ -83,12 +83,24 @@
     <t xml:space="preserve">Primed-hiPSC</t>
   </si>
   <si>
+    <t xml:space="preserve">RL1752_1772</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hESC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RL1981</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MEL1</t>
+  </si>
+  <si>
     <t xml:space="preserve">RL1982</t>
   </si>
   <si>
-    <t xml:space="preserve">MEL1</t>
-  </si>
-  <si>
     <t xml:space="preserve">RL1983</t>
   </si>
   <si>
@@ -99,6 +111,12 @@
   </si>
   <si>
     <t xml:space="preserve">RL1985</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RL2351</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RL2352</t>
   </si>
   <si>
     <t xml:space="preserve">RL2560</t>
@@ -1022,16 +1040,16 @@
         <v>23</v>
       </c>
       <c r="C29" t="n">
-        <v>0.822617431441759</v>
+        <v>0.861428018950015</v>
       </c>
       <c r="D29" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E29" t="s">
         <v>9</v>
       </c>
       <c r="F29" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="30">
@@ -1042,16 +1060,16 @@
         <v>23</v>
       </c>
       <c r="C30" t="n">
-        <v>0.866285975585954</v>
+        <v>0.866155164607723</v>
       </c>
       <c r="D30" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E30" t="s">
         <v>9</v>
       </c>
       <c r="F30" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="31">
@@ -1062,16 +1080,16 @@
         <v>23</v>
       </c>
       <c r="C31" t="n">
-        <v>0.857350928106007</v>
+        <v>0.845959990802483</v>
       </c>
       <c r="D31" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E31" t="s">
         <v>9</v>
       </c>
       <c r="F31" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="32">
@@ -1082,16 +1100,16 @@
         <v>23</v>
       </c>
       <c r="C32" t="n">
-        <v>0.827749330699452</v>
+        <v>0.845095125575504</v>
       </c>
       <c r="D32" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E32" t="s">
         <v>9</v>
       </c>
       <c r="F32" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="33">
@@ -1102,16 +1120,16 @@
         <v>23</v>
       </c>
       <c r="C33" t="n">
-        <v>0.865595452953694</v>
+        <v>0.859975923461953</v>
       </c>
       <c r="D33" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E33" t="s">
         <v>9</v>
       </c>
       <c r="F33" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="34">
@@ -1122,16 +1140,16 @@
         <v>23</v>
       </c>
       <c r="C34" t="n">
-        <v>0.856184319158166</v>
+        <v>0.851078243781352</v>
       </c>
       <c r="D34" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E34" t="s">
         <v>9</v>
       </c>
       <c r="F34" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="35">
@@ -1142,16 +1160,16 @@
         <v>23</v>
       </c>
       <c r="C35" t="n">
-        <v>0.868923692519303</v>
+        <v>0.857403189066059</v>
       </c>
       <c r="D35" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E35" t="s">
         <v>9</v>
       </c>
       <c r="F35" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="36">
@@ -1162,16 +1180,16 @@
         <v>23</v>
       </c>
       <c r="C36" t="n">
-        <v>0.843004627981488</v>
+        <v>0.836729559748428</v>
       </c>
       <c r="D36" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E36" t="s">
         <v>9</v>
       </c>
       <c r="F36" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="37">
@@ -1182,16 +1200,16 @@
         <v>23</v>
       </c>
       <c r="C37" t="n">
-        <v>0.862464433684421</v>
+        <v>0.863194763332523</v>
       </c>
       <c r="D37" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E37" t="s">
         <v>9</v>
       </c>
       <c r="F37" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="38">
@@ -1199,19 +1217,19 @@
         <v>6</v>
       </c>
       <c r="B38" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C38" t="n">
-        <v>0.875393945181931</v>
+        <v>0.891096797770773</v>
       </c>
       <c r="D38" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="E38" t="s">
         <v>9</v>
       </c>
       <c r="F38" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="39">
@@ -1219,19 +1237,19 @@
         <v>11</v>
       </c>
       <c r="B39" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C39" t="n">
-        <v>0.880646946115147</v>
+        <v>0.896535523244148</v>
       </c>
       <c r="D39" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="E39" t="s">
         <v>9</v>
       </c>
       <c r="F39" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="40">
@@ -1239,19 +1257,19 @@
         <v>12</v>
       </c>
       <c r="B40" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C40" t="n">
-        <v>0.875492840838348</v>
+        <v>0.87870876765059</v>
       </c>
       <c r="D40" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="E40" t="s">
         <v>9</v>
       </c>
       <c r="F40" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="41">
@@ -1259,19 +1277,19 @@
         <v>13</v>
       </c>
       <c r="B41" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C41" t="n">
-        <v>0.858500262671022</v>
+        <v>0.876878700470624</v>
       </c>
       <c r="D41" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="E41" t="s">
         <v>9</v>
       </c>
       <c r="F41" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="42">
@@ -1279,19 +1297,19 @@
         <v>14</v>
       </c>
       <c r="B42" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C42" t="n">
-        <v>0.889487085291547</v>
+        <v>0.904404120593517</v>
       </c>
       <c r="D42" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="E42" t="s">
         <v>9</v>
       </c>
       <c r="F42" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="43">
@@ -1299,19 +1317,19 @@
         <v>15</v>
       </c>
       <c r="B43" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C43" t="n">
-        <v>0.880490535928605</v>
+        <v>0.891338657426636</v>
       </c>
       <c r="D43" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="E43" t="s">
         <v>9</v>
       </c>
       <c r="F43" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="44">
@@ -1319,19 +1337,19 @@
         <v>16</v>
       </c>
       <c r="B44" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C44" t="n">
-        <v>0.861699932191397</v>
+        <v>0.877709622803852</v>
       </c>
       <c r="D44" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="E44" t="s">
         <v>9</v>
       </c>
       <c r="F44" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="45">
@@ -1339,19 +1357,19 @@
         <v>17</v>
       </c>
       <c r="B45" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C45" t="n">
-        <v>0.842140656861469</v>
+        <v>0.857718757410481</v>
       </c>
       <c r="D45" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="E45" t="s">
         <v>9</v>
       </c>
       <c r="F45" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="46">
@@ -1359,19 +1377,19 @@
         <v>18</v>
       </c>
       <c r="B46" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C46" t="n">
-        <v>0.874813603347924</v>
+        <v>0.889362903138264</v>
       </c>
       <c r="D46" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="E46" t="s">
         <v>9</v>
       </c>
       <c r="F46" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="47">
@@ -1379,19 +1397,19 @@
         <v>6</v>
       </c>
       <c r="B47" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C47" t="n">
-        <v>0.884395352930822</v>
+        <v>0.822617431441759</v>
       </c>
       <c r="D47" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E47" t="s">
         <v>9</v>
       </c>
       <c r="F47" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="48">
@@ -1399,19 +1417,19 @@
         <v>11</v>
       </c>
       <c r="B48" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C48" t="n">
-        <v>0.895744814248578</v>
+        <v>0.866285975585954</v>
       </c>
       <c r="D48" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E48" t="s">
         <v>9</v>
       </c>
       <c r="F48" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="49">
@@ -1419,19 +1437,19 @@
         <v>12</v>
       </c>
       <c r="B49" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C49" t="n">
-        <v>0.88492298276038</v>
+        <v>0.857350928106007</v>
       </c>
       <c r="D49" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E49" t="s">
         <v>9</v>
       </c>
       <c r="F49" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="50">
@@ -1439,19 +1457,19 @@
         <v>13</v>
       </c>
       <c r="B50" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C50" t="n">
-        <v>0.876717674848516</v>
+        <v>0.827749330699452</v>
       </c>
       <c r="D50" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E50" t="s">
         <v>9</v>
       </c>
       <c r="F50" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="51">
@@ -1459,19 +1477,19 @@
         <v>14</v>
       </c>
       <c r="B51" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C51" t="n">
-        <v>0.896262242654407</v>
+        <v>0.865595452953694</v>
       </c>
       <c r="D51" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E51" t="s">
         <v>9</v>
       </c>
       <c r="F51" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="52">
@@ -1479,19 +1497,19 @@
         <v>15</v>
       </c>
       <c r="B52" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C52" t="n">
-        <v>0.883332900511595</v>
+        <v>0.856184319158166</v>
       </c>
       <c r="D52" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E52" t="s">
         <v>9</v>
       </c>
       <c r="F52" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="53">
@@ -1499,19 +1517,19 @@
         <v>16</v>
       </c>
       <c r="B53" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C53" t="n">
-        <v>0.887519938397228</v>
+        <v>0.868923692519303</v>
       </c>
       <c r="D53" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E53" t="s">
         <v>9</v>
       </c>
       <c r="F53" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="54">
@@ -1519,19 +1537,19 @@
         <v>17</v>
       </c>
       <c r="B54" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C54" t="n">
-        <v>0.854165768716866</v>
+        <v>0.843004627981488</v>
       </c>
       <c r="D54" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E54" t="s">
         <v>9</v>
       </c>
       <c r="F54" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="55">
@@ -1539,19 +1557,19 @@
         <v>18</v>
       </c>
       <c r="B55" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C55" t="n">
-        <v>0.886607132777132</v>
+        <v>0.862464433684421</v>
       </c>
       <c r="D55" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E55" t="s">
         <v>9</v>
       </c>
       <c r="F55" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="56">
@@ -1559,19 +1577,19 @@
         <v>6</v>
       </c>
       <c r="B56" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C56" t="n">
-        <v>0.876873765661929</v>
+        <v>0.875393945181931</v>
       </c>
       <c r="D56" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="E56" t="s">
         <v>9</v>
       </c>
       <c r="F56" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="57">
@@ -1579,19 +1597,19 @@
         <v>11</v>
       </c>
       <c r="B57" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C57" t="n">
-        <v>0.883142739694819</v>
+        <v>0.880646946115147</v>
       </c>
       <c r="D57" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="E57" t="s">
         <v>9</v>
       </c>
       <c r="F57" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="58">
@@ -1599,19 +1617,19 @@
         <v>12</v>
       </c>
       <c r="B58" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C58" t="n">
-        <v>0.874806891753246</v>
+        <v>0.875492840838348</v>
       </c>
       <c r="D58" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="E58" t="s">
         <v>9</v>
       </c>
       <c r="F58" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="59">
@@ -1619,19 +1637,19 @@
         <v>13</v>
       </c>
       <c r="B59" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C59" t="n">
-        <v>0.860161634538012</v>
+        <v>0.858500262671022</v>
       </c>
       <c r="D59" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="E59" t="s">
         <v>9</v>
       </c>
       <c r="F59" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="60">
@@ -1639,19 +1657,19 @@
         <v>14</v>
       </c>
       <c r="B60" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C60" t="n">
-        <v>0.884950377517358</v>
+        <v>0.889487085291547</v>
       </c>
       <c r="D60" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="E60" t="s">
         <v>9</v>
       </c>
       <c r="F60" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="61">
@@ -1659,19 +1677,19 @@
         <v>15</v>
       </c>
       <c r="B61" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C61" t="n">
-        <v>0.876847859007456</v>
+        <v>0.880490535928605</v>
       </c>
       <c r="D61" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="E61" t="s">
         <v>9</v>
       </c>
       <c r="F61" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="62">
@@ -1679,19 +1697,19 @@
         <v>16</v>
       </c>
       <c r="B62" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C62" t="n">
-        <v>0.87988428311009</v>
+        <v>0.861699932191397</v>
       </c>
       <c r="D62" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="E62" t="s">
         <v>9</v>
       </c>
       <c r="F62" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="63">
@@ -1699,19 +1717,19 @@
         <v>17</v>
       </c>
       <c r="B63" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C63" t="n">
-        <v>0.861359497730547</v>
+        <v>0.842140656861469</v>
       </c>
       <c r="D63" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="E63" t="s">
         <v>9</v>
       </c>
       <c r="F63" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="64">
@@ -1719,19 +1737,19 @@
         <v>18</v>
       </c>
       <c r="B64" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C64" t="n">
-        <v>0.874622087853459</v>
+        <v>0.874813603347924</v>
       </c>
       <c r="D64" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="E64" t="s">
         <v>9</v>
       </c>
       <c r="F64" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="65">
@@ -1739,19 +1757,19 @@
         <v>6</v>
       </c>
       <c r="B65" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C65" t="n">
-        <v>0.817091758967585</v>
+        <v>0.884395352930822</v>
       </c>
       <c r="D65" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="E65" t="s">
         <v>9</v>
       </c>
       <c r="F65" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="66">
@@ -1759,19 +1777,19 @@
         <v>11</v>
       </c>
       <c r="B66" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C66" t="n">
-        <v>0.856447030171831</v>
+        <v>0.895744814248578</v>
       </c>
       <c r="D66" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="E66" t="s">
         <v>9</v>
       </c>
       <c r="F66" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="67">
@@ -1779,19 +1797,19 @@
         <v>12</v>
       </c>
       <c r="B67" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C67" t="n">
-        <v>0.852310331218313</v>
+        <v>0.88492298276038</v>
       </c>
       <c r="D67" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="E67" t="s">
         <v>9</v>
       </c>
       <c r="F67" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="68">
@@ -1799,19 +1817,19 @@
         <v>13</v>
       </c>
       <c r="B68" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C68" t="n">
-        <v>0.822988173021255</v>
+        <v>0.876717674848516</v>
       </c>
       <c r="D68" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="E68" t="s">
         <v>9</v>
       </c>
       <c r="F68" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="69">
@@ -1819,19 +1837,19 @@
         <v>14</v>
       </c>
       <c r="B69" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C69" t="n">
-        <v>0.859459558453213</v>
+        <v>0.896262242654407</v>
       </c>
       <c r="D69" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="E69" t="s">
         <v>9</v>
       </c>
       <c r="F69" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="70">
@@ -1839,19 +1857,19 @@
         <v>15</v>
       </c>
       <c r="B70" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C70" t="n">
-        <v>0.847487829758661</v>
+        <v>0.883332900511595</v>
       </c>
       <c r="D70" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="E70" t="s">
         <v>9</v>
       </c>
       <c r="F70" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="71">
@@ -1859,19 +1877,19 @@
         <v>16</v>
       </c>
       <c r="B71" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C71" t="n">
-        <v>0.873465511100558</v>
+        <v>0.887519938397228</v>
       </c>
       <c r="D71" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="E71" t="s">
         <v>9</v>
       </c>
       <c r="F71" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="72">
@@ -1879,19 +1897,19 @@
         <v>17</v>
       </c>
       <c r="B72" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C72" t="n">
-        <v>0.836329202788526</v>
+        <v>0.854165768716866</v>
       </c>
       <c r="D72" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="E72" t="s">
         <v>9</v>
       </c>
       <c r="F72" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="73">
@@ -1899,19 +1917,19 @@
         <v>18</v>
       </c>
       <c r="B73" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C73" t="n">
-        <v>0.852288861689106</v>
+        <v>0.886607132777132</v>
       </c>
       <c r="D73" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="E73" t="s">
         <v>9</v>
       </c>
       <c r="F73" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="74">
@@ -1919,19 +1937,19 @@
         <v>6</v>
       </c>
       <c r="B74" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C74" t="n">
-        <v>0.873099033717944</v>
+        <v>0.876873765661929</v>
       </c>
       <c r="D74" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="E74" t="s">
         <v>9</v>
       </c>
       <c r="F74" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="75">
@@ -1939,19 +1957,19 @@
         <v>11</v>
       </c>
       <c r="B75" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C75" t="n">
-        <v>0.822791961568589</v>
+        <v>0.883142739694819</v>
       </c>
       <c r="D75" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="E75" t="s">
         <v>9</v>
       </c>
       <c r="F75" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="76">
@@ -1959,19 +1977,19 @@
         <v>12</v>
       </c>
       <c r="B76" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C76" t="n">
-        <v>0.865972195916512</v>
+        <v>0.874806891753246</v>
       </c>
       <c r="D76" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="E76" t="s">
         <v>9</v>
       </c>
       <c r="F76" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="77">
@@ -1979,19 +1997,19 @@
         <v>13</v>
       </c>
       <c r="B77" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C77" t="n">
-        <v>0.811575168549164</v>
+        <v>0.860161634538012</v>
       </c>
       <c r="D77" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="E77" t="s">
         <v>9</v>
       </c>
       <c r="F77" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="78">
@@ -1999,19 +2017,19 @@
         <v>14</v>
       </c>
       <c r="B78" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C78" t="n">
-        <v>0.878396001860448</v>
+        <v>0.884950377517358</v>
       </c>
       <c r="D78" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="E78" t="s">
         <v>9</v>
       </c>
       <c r="F78" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="79">
@@ -2019,19 +2037,19 @@
         <v>15</v>
       </c>
       <c r="B79" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C79" t="n">
-        <v>0.871948489716377</v>
+        <v>0.876847859007456</v>
       </c>
       <c r="D79" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="E79" t="s">
         <v>9</v>
       </c>
       <c r="F79" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="80">
@@ -2039,19 +2057,19 @@
         <v>16</v>
       </c>
       <c r="B80" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C80" t="n">
-        <v>0.775676025359037</v>
+        <v>0.87988428311009</v>
       </c>
       <c r="D80" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="E80" t="s">
         <v>9</v>
       </c>
       <c r="F80" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="81">
@@ -2059,19 +2077,19 @@
         <v>17</v>
       </c>
       <c r="B81" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C81" t="n">
-        <v>0.841481750739388</v>
+        <v>0.861359497730547</v>
       </c>
       <c r="D81" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="E81" t="s">
         <v>9</v>
       </c>
       <c r="F81" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="82">
@@ -2079,19 +2097,19 @@
         <v>18</v>
       </c>
       <c r="B82" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C82" t="n">
-        <v>0.866646241999188</v>
+        <v>0.874622087853459</v>
       </c>
       <c r="D82" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="E82" t="s">
         <v>9</v>
       </c>
       <c r="F82" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="83">
@@ -2099,19 +2117,19 @@
         <v>6</v>
       </c>
       <c r="B83" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C83" t="n">
-        <v>0.837542670123289</v>
+        <v>0.856873680083969</v>
       </c>
       <c r="D83" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E83" t="s">
         <v>9</v>
       </c>
       <c r="F83" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
     </row>
     <row r="84">
@@ -2119,19 +2137,19 @@
         <v>11</v>
       </c>
       <c r="B84" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C84" t="n">
-        <v>0.786070276744735</v>
+        <v>0.841592197079839</v>
       </c>
       <c r="D84" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E84" t="s">
         <v>9</v>
       </c>
       <c r="F84" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
     </row>
     <row r="85">
@@ -2139,19 +2157,19 @@
         <v>12</v>
       </c>
       <c r="B85" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C85" t="n">
-        <v>0.821630790773293</v>
+        <v>0.831367743126416</v>
       </c>
       <c r="D85" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E85" t="s">
         <v>9</v>
       </c>
       <c r="F85" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
     </row>
     <row r="86">
@@ -2159,19 +2177,19 @@
         <v>13</v>
       </c>
       <c r="B86" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C86" t="n">
-        <v>0.853600645790913</v>
+        <v>0.838045168627997</v>
       </c>
       <c r="D86" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E86" t="s">
         <v>9</v>
       </c>
       <c r="F86" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
     </row>
     <row r="87">
@@ -2179,19 +2197,19 @@
         <v>14</v>
       </c>
       <c r="B87" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C87" t="n">
-        <v>0.810683368922606</v>
+        <v>0.835144443938042</v>
       </c>
       <c r="D87" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E87" t="s">
         <v>9</v>
       </c>
       <c r="F87" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
     </row>
     <row r="88">
@@ -2199,19 +2217,19 @@
         <v>15</v>
       </c>
       <c r="B88" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C88" t="n">
-        <v>0.806859927392169</v>
+        <v>0.838180687054066</v>
       </c>
       <c r="D88" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E88" t="s">
         <v>9</v>
       </c>
       <c r="F88" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
     </row>
     <row r="89">
@@ -2219,19 +2237,19 @@
         <v>16</v>
       </c>
       <c r="B89" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C89" t="n">
-        <v>0.820435470864072</v>
+        <v>0.851503387379158</v>
       </c>
       <c r="D89" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E89" t="s">
         <v>9</v>
       </c>
       <c r="F89" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
     </row>
     <row r="90">
@@ -2239,19 +2257,19 @@
         <v>17</v>
       </c>
       <c r="B90" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C90" t="n">
-        <v>0.785945733304347</v>
+        <v>0.818909027153784</v>
       </c>
       <c r="D90" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E90" t="s">
         <v>9</v>
       </c>
       <c r="F90" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
     </row>
     <row r="91">
@@ -2259,19 +2277,19 @@
         <v>18</v>
       </c>
       <c r="B91" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C91" t="n">
-        <v>0.782505439024795</v>
+        <v>0.847016738581875</v>
       </c>
       <c r="D91" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E91" t="s">
         <v>9</v>
       </c>
       <c r="F91" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
     </row>
     <row r="92">
@@ -2279,19 +2297,19 @@
         <v>6</v>
       </c>
       <c r="B92" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C92" t="n">
-        <v>0.757853008147925</v>
+        <v>0.867087861571466</v>
       </c>
       <c r="D92" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E92" t="s">
         <v>9</v>
       </c>
       <c r="F92" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
     </row>
     <row r="93">
@@ -2299,19 +2317,19 @@
         <v>11</v>
       </c>
       <c r="B93" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C93" t="n">
-        <v>0.744181778749103</v>
+        <v>0.868304268694092</v>
       </c>
       <c r="D93" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E93" t="s">
         <v>9</v>
       </c>
       <c r="F93" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
     </row>
     <row r="94">
@@ -2319,19 +2337,19 @@
         <v>12</v>
       </c>
       <c r="B94" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C94" t="n">
-        <v>0.754549651596002</v>
+        <v>0.854554844661947</v>
       </c>
       <c r="D94" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E94" t="s">
         <v>9</v>
       </c>
       <c r="F94" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
     </row>
     <row r="95">
@@ -2339,19 +2357,19 @@
         <v>13</v>
       </c>
       <c r="B95" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C95" t="n">
-        <v>0.769669343545483</v>
+        <v>0.854181789754643</v>
       </c>
       <c r="D95" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E95" t="s">
         <v>9</v>
       </c>
       <c r="F95" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
     </row>
     <row r="96">
@@ -2359,19 +2377,19 @@
         <v>14</v>
       </c>
       <c r="B96" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C96" t="n">
-        <v>0.602687794984552</v>
+        <v>0.868506150467128</v>
       </c>
       <c r="D96" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E96" t="s">
         <v>9</v>
       </c>
       <c r="F96" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
     </row>
     <row r="97">
@@ -2379,19 +2397,19 @@
         <v>15</v>
       </c>
       <c r="B97" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C97" t="n">
-        <v>0.618623868302139</v>
+        <v>0.865288021513155</v>
       </c>
       <c r="D97" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E97" t="s">
         <v>9</v>
       </c>
       <c r="F97" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
     </row>
     <row r="98">
@@ -2399,19 +2417,19 @@
         <v>16</v>
       </c>
       <c r="B98" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C98" t="n">
-        <v>0.699409824683215</v>
+        <v>0.855913664868018</v>
       </c>
       <c r="D98" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E98" t="s">
         <v>9</v>
       </c>
       <c r="F98" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
     </row>
     <row r="99">
@@ -2419,19 +2437,19 @@
         <v>17</v>
       </c>
       <c r="B99" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C99" t="n">
-        <v>0.645413119502632</v>
+        <v>0.830097791405959</v>
       </c>
       <c r="D99" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E99" t="s">
         <v>9</v>
       </c>
       <c r="F99" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
     </row>
     <row r="100">
@@ -2439,19 +2457,19 @@
         <v>18</v>
       </c>
       <c r="B100" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C100" t="n">
-        <v>0.634664789054026</v>
+        <v>0.861457776362044</v>
       </c>
       <c r="D100" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E100" t="s">
         <v>9</v>
       </c>
       <c r="F100" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
     </row>
     <row r="101">
@@ -2459,10 +2477,10 @@
         <v>6</v>
       </c>
       <c r="B101" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C101" t="n">
-        <v>0.88839353467901</v>
+        <v>0.817091758967585</v>
       </c>
       <c r="D101" t="s">
         <v>22</v>
@@ -2471,7 +2489,7 @@
         <v>9</v>
       </c>
       <c r="F101" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
     <row r="102">
@@ -2479,10 +2497,10 @@
         <v>11</v>
       </c>
       <c r="B102" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C102" t="n">
-        <v>0.884307811137079</v>
+        <v>0.856447030171831</v>
       </c>
       <c r="D102" t="s">
         <v>22</v>
@@ -2491,7 +2509,7 @@
         <v>9</v>
       </c>
       <c r="F102" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
     <row r="103">
@@ -2499,10 +2517,10 @@
         <v>12</v>
       </c>
       <c r="B103" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C103" t="n">
-        <v>0.762959415778762</v>
+        <v>0.852310331218313</v>
       </c>
       <c r="D103" t="s">
         <v>22</v>
@@ -2511,7 +2529,7 @@
         <v>9</v>
       </c>
       <c r="F103" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
     <row r="104">
@@ -2519,10 +2537,10 @@
         <v>13</v>
       </c>
       <c r="B104" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C104" t="n">
-        <v>0.902498248890964</v>
+        <v>0.822988173021255</v>
       </c>
       <c r="D104" t="s">
         <v>22</v>
@@ -2531,7 +2549,7 @@
         <v>9</v>
       </c>
       <c r="F104" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
     <row r="105">
@@ -2539,10 +2557,10 @@
         <v>14</v>
       </c>
       <c r="B105" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C105" t="n">
-        <v>0.887027521200467</v>
+        <v>0.859459558453213</v>
       </c>
       <c r="D105" t="s">
         <v>22</v>
@@ -2551,7 +2569,7 @@
         <v>9</v>
       </c>
       <c r="F105" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
     <row r="106">
@@ -2559,10 +2577,10 @@
         <v>15</v>
       </c>
       <c r="B106" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C106" t="n">
-        <v>0.86763168282225</v>
+        <v>0.847487829758661</v>
       </c>
       <c r="D106" t="s">
         <v>22</v>
@@ -2571,7 +2589,7 @@
         <v>9</v>
       </c>
       <c r="F106" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
     <row r="107">
@@ -2579,10 +2597,10 @@
         <v>16</v>
       </c>
       <c r="B107" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C107" t="n">
-        <v>0.828556610368232</v>
+        <v>0.873465511100558</v>
       </c>
       <c r="D107" t="s">
         <v>22</v>
@@ -2591,7 +2609,7 @@
         <v>9</v>
       </c>
       <c r="F107" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
     <row r="108">
@@ -2599,10 +2617,10 @@
         <v>17</v>
       </c>
       <c r="B108" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C108" t="n">
-        <v>0.8173775044634</v>
+        <v>0.836329202788526</v>
       </c>
       <c r="D108" t="s">
         <v>22</v>
@@ -2611,7 +2629,7 @@
         <v>9</v>
       </c>
       <c r="F108" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
     <row r="109">
@@ -2619,10 +2637,10 @@
         <v>18</v>
       </c>
       <c r="B109" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C109" t="n">
-        <v>0.799830960275665</v>
+        <v>0.852288861689106</v>
       </c>
       <c r="D109" t="s">
         <v>22</v>
@@ -2631,7 +2649,7 @@
         <v>9</v>
       </c>
       <c r="F109" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
     <row r="110">
@@ -2639,19 +2657,19 @@
         <v>6</v>
       </c>
       <c r="B110" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C110" t="n">
-        <v>0.884777715250422</v>
+        <v>0.873099033717944</v>
       </c>
       <c r="D110" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="E110" t="s">
         <v>9</v>
       </c>
       <c r="F110" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
     <row r="111">
@@ -2659,19 +2677,19 @@
         <v>11</v>
       </c>
       <c r="B111" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C111" t="n">
-        <v>0.880363497815284</v>
+        <v>0.822791961568589</v>
       </c>
       <c r="D111" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="E111" t="s">
         <v>9</v>
       </c>
       <c r="F111" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
     <row r="112">
@@ -2679,19 +2697,19 @@
         <v>12</v>
       </c>
       <c r="B112" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C112" t="n">
-        <v>0.873649248337009</v>
+        <v>0.865972195916512</v>
       </c>
       <c r="D112" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="E112" t="s">
         <v>9</v>
       </c>
       <c r="F112" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
     <row r="113">
@@ -2699,19 +2717,19 @@
         <v>13</v>
       </c>
       <c r="B113" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C113" t="n">
-        <v>0.872848759258852</v>
+        <v>0.811575168549164</v>
       </c>
       <c r="D113" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="E113" t="s">
         <v>9</v>
       </c>
       <c r="F113" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
     <row r="114">
@@ -2719,19 +2737,19 @@
         <v>14</v>
       </c>
       <c r="B114" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C114" t="n">
-        <v>0.876681098262728</v>
+        <v>0.878396001860448</v>
       </c>
       <c r="D114" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="E114" t="s">
         <v>9</v>
       </c>
       <c r="F114" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
     <row r="115">
@@ -2739,19 +2757,19 @@
         <v>15</v>
       </c>
       <c r="B115" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C115" t="n">
-        <v>0.877737765856337</v>
+        <v>0.871948489716377</v>
       </c>
       <c r="D115" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="E115" t="s">
         <v>9</v>
       </c>
       <c r="F115" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
     <row r="116">
@@ -2759,19 +2777,19 @@
         <v>16</v>
       </c>
       <c r="B116" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C116" t="n">
-        <v>0.880555400658005</v>
+        <v>0.775676025359037</v>
       </c>
       <c r="D116" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="E116" t="s">
         <v>9</v>
       </c>
       <c r="F116" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
     <row r="117">
@@ -2779,19 +2797,19 @@
         <v>17</v>
       </c>
       <c r="B117" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C117" t="n">
-        <v>0.858800959232614</v>
+        <v>0.841481750739388</v>
       </c>
       <c r="D117" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="E117" t="s">
         <v>9</v>
       </c>
       <c r="F117" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
     <row r="118">
@@ -2799,19 +2817,19 @@
         <v>18</v>
       </c>
       <c r="B118" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C118" t="n">
-        <v>0.878214934018642</v>
+        <v>0.866646241999188</v>
       </c>
       <c r="D118" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="E118" t="s">
         <v>9</v>
       </c>
       <c r="F118" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
     <row r="119">
@@ -2819,13 +2837,13 @@
         <v>6</v>
       </c>
       <c r="B119" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C119" t="n">
-        <v>0.895672909732227</v>
+        <v>0.837542670123289</v>
       </c>
       <c r="D119" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E119" t="s">
         <v>9</v>
@@ -2839,13 +2857,13 @@
         <v>11</v>
       </c>
       <c r="B120" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C120" t="n">
-        <v>0.889903608891502</v>
+        <v>0.786070276744735</v>
       </c>
       <c r="D120" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E120" t="s">
         <v>9</v>
@@ -2859,13 +2877,13 @@
         <v>12</v>
       </c>
       <c r="B121" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C121" t="n">
-        <v>0.885175653390635</v>
+        <v>0.821630790773293</v>
       </c>
       <c r="D121" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E121" t="s">
         <v>9</v>
@@ -2879,13 +2897,13 @@
         <v>13</v>
       </c>
       <c r="B122" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C122" t="n">
-        <v>0.889452083625649</v>
+        <v>0.853600645790913</v>
       </c>
       <c r="D122" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E122" t="s">
         <v>9</v>
@@ -2899,13 +2917,13 @@
         <v>14</v>
       </c>
       <c r="B123" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C123" t="n">
-        <v>0.894716603302667</v>
+        <v>0.810683368922606</v>
       </c>
       <c r="D123" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E123" t="s">
         <v>9</v>
@@ -2919,13 +2937,13 @@
         <v>15</v>
       </c>
       <c r="B124" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C124" t="n">
-        <v>0.880887478238861</v>
+        <v>0.806859927392169</v>
       </c>
       <c r="D124" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E124" t="s">
         <v>9</v>
@@ -2939,13 +2957,13 @@
         <v>16</v>
       </c>
       <c r="B125" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C125" t="n">
-        <v>0.901107115439008</v>
+        <v>0.820435470864072</v>
       </c>
       <c r="D125" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E125" t="s">
         <v>9</v>
@@ -2959,13 +2977,13 @@
         <v>17</v>
       </c>
       <c r="B126" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C126" t="n">
-        <v>0.865613392905205</v>
+        <v>0.785945733304347</v>
       </c>
       <c r="D126" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E126" t="s">
         <v>9</v>
@@ -2979,13 +2997,13 @@
         <v>18</v>
       </c>
       <c r="B127" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C127" t="n">
-        <v>0.891101304889274</v>
+        <v>0.782505439024795</v>
       </c>
       <c r="D127" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E127" t="s">
         <v>9</v>
@@ -2999,19 +3017,19 @@
         <v>6</v>
       </c>
       <c r="B128" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C128" t="n">
-        <v>0.812567172764566</v>
+        <v>0.757853008147925</v>
       </c>
       <c r="D128" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E128" t="s">
         <v>9</v>
       </c>
       <c r="F128" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="129">
@@ -3019,19 +3037,19 @@
         <v>11</v>
       </c>
       <c r="B129" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C129" t="n">
-        <v>0.835878116999978</v>
+        <v>0.744181778749103</v>
       </c>
       <c r="D129" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E129" t="s">
         <v>9</v>
       </c>
       <c r="F129" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="130">
@@ -3039,19 +3057,19 @@
         <v>12</v>
       </c>
       <c r="B130" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C130" t="n">
-        <v>0.785352593786459</v>
+        <v>0.754549651596002</v>
       </c>
       <c r="D130" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E130" t="s">
         <v>9</v>
       </c>
       <c r="F130" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="131">
@@ -3059,19 +3077,19 @@
         <v>13</v>
       </c>
       <c r="B131" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C131" t="n">
-        <v>0.848163606010017</v>
+        <v>0.769669343545483</v>
       </c>
       <c r="D131" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E131" t="s">
         <v>9</v>
       </c>
       <c r="F131" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="132">
@@ -3079,19 +3097,19 @@
         <v>14</v>
       </c>
       <c r="B132" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C132" t="n">
-        <v>0.876736471076094</v>
+        <v>0.602687794984552</v>
       </c>
       <c r="D132" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E132" t="s">
         <v>9</v>
       </c>
       <c r="F132" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="133">
@@ -3099,19 +3117,19 @@
         <v>15</v>
       </c>
       <c r="B133" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C133" t="n">
-        <v>0.873053511090034</v>
+        <v>0.618623868302139</v>
       </c>
       <c r="D133" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E133" t="s">
         <v>9</v>
       </c>
       <c r="F133" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="134">
@@ -3119,19 +3137,19 @@
         <v>16</v>
       </c>
       <c r="B134" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C134" t="n">
-        <v>0.824584426946632</v>
+        <v>0.699409824683215</v>
       </c>
       <c r="D134" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E134" t="s">
         <v>9</v>
       </c>
       <c r="F134" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="135">
@@ -3139,19 +3157,19 @@
         <v>17</v>
       </c>
       <c r="B135" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C135" t="n">
-        <v>0.774476456403097</v>
+        <v>0.645413119502632</v>
       </c>
       <c r="D135" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E135" t="s">
         <v>9</v>
       </c>
       <c r="F135" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="136">
@@ -3159,18 +3177,738 @@
         <v>18</v>
       </c>
       <c r="B136" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C136" t="n">
+        <v>0.634664789054026</v>
+      </c>
+      <c r="D136" t="s">
+        <v>22</v>
+      </c>
+      <c r="E136" t="s">
+        <v>9</v>
+      </c>
+      <c r="F136" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="s">
+        <v>6</v>
+      </c>
+      <c r="B137" t="s">
+        <v>39</v>
+      </c>
+      <c r="C137" t="n">
+        <v>0.88839353467901</v>
+      </c>
+      <c r="D137" t="s">
+        <v>22</v>
+      </c>
+      <c r="E137" t="s">
+        <v>9</v>
+      </c>
+      <c r="F137" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="s">
+        <v>11</v>
+      </c>
+      <c r="B138" t="s">
+        <v>39</v>
+      </c>
+      <c r="C138" t="n">
+        <v>0.884307811137079</v>
+      </c>
+      <c r="D138" t="s">
+        <v>22</v>
+      </c>
+      <c r="E138" t="s">
+        <v>9</v>
+      </c>
+      <c r="F138" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="s">
+        <v>12</v>
+      </c>
+      <c r="B139" t="s">
+        <v>39</v>
+      </c>
+      <c r="C139" t="n">
+        <v>0.762959415778762</v>
+      </c>
+      <c r="D139" t="s">
+        <v>22</v>
+      </c>
+      <c r="E139" t="s">
+        <v>9</v>
+      </c>
+      <c r="F139" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="s">
+        <v>13</v>
+      </c>
+      <c r="B140" t="s">
+        <v>39</v>
+      </c>
+      <c r="C140" t="n">
+        <v>0.902498248890964</v>
+      </c>
+      <c r="D140" t="s">
+        <v>22</v>
+      </c>
+      <c r="E140" t="s">
+        <v>9</v>
+      </c>
+      <c r="F140" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="s">
+        <v>14</v>
+      </c>
+      <c r="B141" t="s">
+        <v>39</v>
+      </c>
+      <c r="C141" t="n">
+        <v>0.887027521200467</v>
+      </c>
+      <c r="D141" t="s">
+        <v>22</v>
+      </c>
+      <c r="E141" t="s">
+        <v>9</v>
+      </c>
+      <c r="F141" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="s">
+        <v>15</v>
+      </c>
+      <c r="B142" t="s">
+        <v>39</v>
+      </c>
+      <c r="C142" t="n">
+        <v>0.86763168282225</v>
+      </c>
+      <c r="D142" t="s">
+        <v>22</v>
+      </c>
+      <c r="E142" t="s">
+        <v>9</v>
+      </c>
+      <c r="F142" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="s">
+        <v>16</v>
+      </c>
+      <c r="B143" t="s">
+        <v>39</v>
+      </c>
+      <c r="C143" t="n">
+        <v>0.828556610368232</v>
+      </c>
+      <c r="D143" t="s">
+        <v>22</v>
+      </c>
+      <c r="E143" t="s">
+        <v>9</v>
+      </c>
+      <c r="F143" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="s">
+        <v>17</v>
+      </c>
+      <c r="B144" t="s">
+        <v>39</v>
+      </c>
+      <c r="C144" t="n">
+        <v>0.8173775044634</v>
+      </c>
+      <c r="D144" t="s">
+        <v>22</v>
+      </c>
+      <c r="E144" t="s">
+        <v>9</v>
+      </c>
+      <c r="F144" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="s">
+        <v>18</v>
+      </c>
+      <c r="B145" t="s">
+        <v>39</v>
+      </c>
+      <c r="C145" t="n">
+        <v>0.799830960275665</v>
+      </c>
+      <c r="D145" t="s">
+        <v>22</v>
+      </c>
+      <c r="E145" t="s">
+        <v>9</v>
+      </c>
+      <c r="F145" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="s">
+        <v>6</v>
+      </c>
+      <c r="B146" t="s">
+        <v>40</v>
+      </c>
+      <c r="C146" t="n">
+        <v>0.884777715250422</v>
+      </c>
+      <c r="D146" t="s">
+        <v>31</v>
+      </c>
+      <c r="E146" t="s">
+        <v>9</v>
+      </c>
+      <c r="F146" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="s">
+        <v>11</v>
+      </c>
+      <c r="B147" t="s">
+        <v>40</v>
+      </c>
+      <c r="C147" t="n">
+        <v>0.880363497815284</v>
+      </c>
+      <c r="D147" t="s">
+        <v>31</v>
+      </c>
+      <c r="E147" t="s">
+        <v>9</v>
+      </c>
+      <c r="F147" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="s">
+        <v>12</v>
+      </c>
+      <c r="B148" t="s">
+        <v>40</v>
+      </c>
+      <c r="C148" t="n">
+        <v>0.873649248337009</v>
+      </c>
+      <c r="D148" t="s">
+        <v>31</v>
+      </c>
+      <c r="E148" t="s">
+        <v>9</v>
+      </c>
+      <c r="F148" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="s">
+        <v>13</v>
+      </c>
+      <c r="B149" t="s">
+        <v>40</v>
+      </c>
+      <c r="C149" t="n">
+        <v>0.872848759258852</v>
+      </c>
+      <c r="D149" t="s">
+        <v>31</v>
+      </c>
+      <c r="E149" t="s">
+        <v>9</v>
+      </c>
+      <c r="F149" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="s">
+        <v>14</v>
+      </c>
+      <c r="B150" t="s">
+        <v>40</v>
+      </c>
+      <c r="C150" t="n">
+        <v>0.876681098262728</v>
+      </c>
+      <c r="D150" t="s">
+        <v>31</v>
+      </c>
+      <c r="E150" t="s">
+        <v>9</v>
+      </c>
+      <c r="F150" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="s">
+        <v>15</v>
+      </c>
+      <c r="B151" t="s">
+        <v>40</v>
+      </c>
+      <c r="C151" t="n">
+        <v>0.877737765856337</v>
+      </c>
+      <c r="D151" t="s">
+        <v>31</v>
+      </c>
+      <c r="E151" t="s">
+        <v>9</v>
+      </c>
+      <c r="F151" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="s">
+        <v>16</v>
+      </c>
+      <c r="B152" t="s">
+        <v>40</v>
+      </c>
+      <c r="C152" t="n">
+        <v>0.880555400658005</v>
+      </c>
+      <c r="D152" t="s">
+        <v>31</v>
+      </c>
+      <c r="E152" t="s">
+        <v>9</v>
+      </c>
+      <c r="F152" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="s">
+        <v>17</v>
+      </c>
+      <c r="B153" t="s">
+        <v>40</v>
+      </c>
+      <c r="C153" t="n">
+        <v>0.858800959232614</v>
+      </c>
+      <c r="D153" t="s">
+        <v>31</v>
+      </c>
+      <c r="E153" t="s">
+        <v>9</v>
+      </c>
+      <c r="F153" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="s">
+        <v>18</v>
+      </c>
+      <c r="B154" t="s">
+        <v>40</v>
+      </c>
+      <c r="C154" t="n">
+        <v>0.878214934018642</v>
+      </c>
+      <c r="D154" t="s">
+        <v>31</v>
+      </c>
+      <c r="E154" t="s">
+        <v>9</v>
+      </c>
+      <c r="F154" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="s">
+        <v>6</v>
+      </c>
+      <c r="B155" t="s">
+        <v>41</v>
+      </c>
+      <c r="C155" t="n">
+        <v>0.895672909732227</v>
+      </c>
+      <c r="D155" t="s">
+        <v>31</v>
+      </c>
+      <c r="E155" t="s">
+        <v>9</v>
+      </c>
+      <c r="F155" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="s">
+        <v>11</v>
+      </c>
+      <c r="B156" t="s">
+        <v>41</v>
+      </c>
+      <c r="C156" t="n">
+        <v>0.889903608891502</v>
+      </c>
+      <c r="D156" t="s">
+        <v>31</v>
+      </c>
+      <c r="E156" t="s">
+        <v>9</v>
+      </c>
+      <c r="F156" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="s">
+        <v>12</v>
+      </c>
+      <c r="B157" t="s">
+        <v>41</v>
+      </c>
+      <c r="C157" t="n">
+        <v>0.885175653390635</v>
+      </c>
+      <c r="D157" t="s">
+        <v>31</v>
+      </c>
+      <c r="E157" t="s">
+        <v>9</v>
+      </c>
+      <c r="F157" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="s">
+        <v>13</v>
+      </c>
+      <c r="B158" t="s">
+        <v>41</v>
+      </c>
+      <c r="C158" t="n">
+        <v>0.889452083625649</v>
+      </c>
+      <c r="D158" t="s">
+        <v>31</v>
+      </c>
+      <c r="E158" t="s">
+        <v>9</v>
+      </c>
+      <c r="F158" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="s">
+        <v>14</v>
+      </c>
+      <c r="B159" t="s">
+        <v>41</v>
+      </c>
+      <c r="C159" t="n">
+        <v>0.894716603302667</v>
+      </c>
+      <c r="D159" t="s">
+        <v>31</v>
+      </c>
+      <c r="E159" t="s">
+        <v>9</v>
+      </c>
+      <c r="F159" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="s">
+        <v>15</v>
+      </c>
+      <c r="B160" t="s">
+        <v>41</v>
+      </c>
+      <c r="C160" t="n">
+        <v>0.880887478238861</v>
+      </c>
+      <c r="D160" t="s">
+        <v>31</v>
+      </c>
+      <c r="E160" t="s">
+        <v>9</v>
+      </c>
+      <c r="F160" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="s">
+        <v>16</v>
+      </c>
+      <c r="B161" t="s">
+        <v>41</v>
+      </c>
+      <c r="C161" t="n">
+        <v>0.901107115439008</v>
+      </c>
+      <c r="D161" t="s">
+        <v>31</v>
+      </c>
+      <c r="E161" t="s">
+        <v>9</v>
+      </c>
+      <c r="F161" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="s">
+        <v>17</v>
+      </c>
+      <c r="B162" t="s">
+        <v>41</v>
+      </c>
+      <c r="C162" t="n">
+        <v>0.865613392905205</v>
+      </c>
+      <c r="D162" t="s">
+        <v>31</v>
+      </c>
+      <c r="E162" t="s">
+        <v>9</v>
+      </c>
+      <c r="F162" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="s">
+        <v>18</v>
+      </c>
+      <c r="B163" t="s">
+        <v>41</v>
+      </c>
+      <c r="C163" t="n">
+        <v>0.891101304889274</v>
+      </c>
+      <c r="D163" t="s">
+        <v>31</v>
+      </c>
+      <c r="E163" t="s">
+        <v>9</v>
+      </c>
+      <c r="F163" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="s">
+        <v>6</v>
+      </c>
+      <c r="B164" t="s">
+        <v>42</v>
+      </c>
+      <c r="C164" t="n">
+        <v>0.812567172764566</v>
+      </c>
+      <c r="D164" t="s">
+        <v>31</v>
+      </c>
+      <c r="E164" t="s">
+        <v>9</v>
+      </c>
+      <c r="F164" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="s">
+        <v>11</v>
+      </c>
+      <c r="B165" t="s">
+        <v>42</v>
+      </c>
+      <c r="C165" t="n">
+        <v>0.835878116999978</v>
+      </c>
+      <c r="D165" t="s">
+        <v>31</v>
+      </c>
+      <c r="E165" t="s">
+        <v>9</v>
+      </c>
+      <c r="F165" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="s">
+        <v>12</v>
+      </c>
+      <c r="B166" t="s">
+        <v>42</v>
+      </c>
+      <c r="C166" t="n">
+        <v>0.785352593786459</v>
+      </c>
+      <c r="D166" t="s">
+        <v>31</v>
+      </c>
+      <c r="E166" t="s">
+        <v>9</v>
+      </c>
+      <c r="F166" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="s">
+        <v>13</v>
+      </c>
+      <c r="B167" t="s">
+        <v>42</v>
+      </c>
+      <c r="C167" t="n">
+        <v>0.848163606010017</v>
+      </c>
+      <c r="D167" t="s">
+        <v>31</v>
+      </c>
+      <c r="E167" t="s">
+        <v>9</v>
+      </c>
+      <c r="F167" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="s">
+        <v>14</v>
+      </c>
+      <c r="B168" t="s">
+        <v>42</v>
+      </c>
+      <c r="C168" t="n">
+        <v>0.876736471076094</v>
+      </c>
+      <c r="D168" t="s">
+        <v>31</v>
+      </c>
+      <c r="E168" t="s">
+        <v>9</v>
+      </c>
+      <c r="F168" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="s">
+        <v>15</v>
+      </c>
+      <c r="B169" t="s">
+        <v>42</v>
+      </c>
+      <c r="C169" t="n">
+        <v>0.873053511090034</v>
+      </c>
+      <c r="D169" t="s">
+        <v>31</v>
+      </c>
+      <c r="E169" t="s">
+        <v>9</v>
+      </c>
+      <c r="F169" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="s">
+        <v>16</v>
+      </c>
+      <c r="B170" t="s">
+        <v>42</v>
+      </c>
+      <c r="C170" t="n">
+        <v>0.824584426946632</v>
+      </c>
+      <c r="D170" t="s">
+        <v>31</v>
+      </c>
+      <c r="E170" t="s">
+        <v>9</v>
+      </c>
+      <c r="F170" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="s">
+        <v>17</v>
+      </c>
+      <c r="B171" t="s">
+        <v>42</v>
+      </c>
+      <c r="C171" t="n">
+        <v>0.774476456403097</v>
+      </c>
+      <c r="D171" t="s">
+        <v>31</v>
+      </c>
+      <c r="E171" t="s">
+        <v>9</v>
+      </c>
+      <c r="F171" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="s">
+        <v>18</v>
+      </c>
+      <c r="B172" t="s">
+        <v>42</v>
+      </c>
+      <c r="C172" t="n">
         <v>0.830489368143725</v>
       </c>
-      <c r="D136" t="s">
-        <v>27</v>
-      </c>
-      <c r="E136" t="s">
-        <v>9</v>
-      </c>
-      <c r="F136" t="s">
+      <c r="D172" t="s">
+        <v>31</v>
+      </c>
+      <c r="E172" t="s">
+        <v>9</v>
+      </c>
+      <c r="F172" t="s">
         <v>20</v>
       </c>
     </row>
